--- a/dist/document/dest/2020/10/doctors/ptvb.xlsx
+++ b/dist/document/dest/2020/10/doctors/ptvb.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>18900</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
-        <v>411000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
-        <v>116620</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>98000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>802500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>1765200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>74</v>
       </c>
-      <c r="C8" s="1">
-        <v>367780</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>22200</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -493,7 +469,7 @@
         <v>321</v>
       </c>
       <c r="C10" s="1">
-        <v>3602200</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ptvb.xlsx
+++ b/dist/document/dest/2020/10/doctors/ptvb.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Air-x (Simethicone 80mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="3">
@@ -410,23 +413,32 @@
         <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>164400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Debridat (Trimebutine 100mg)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B4" s="1">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>164400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Forlax (Macrogol 4000)</v>
+        <v>Debridat (Trimebutine 100mg)</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68600</v>
       </c>
     </row>
     <row r="6">
@@ -434,47 +446,48 @@
         <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>535000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Losec (Omeprazole 20mg)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
       </c>
+      <c r="C7" s="1">
+        <v>580800</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Pepsan (Gaiazulene, dimeticone)</v>
+        <v xml:space="preserve">Sorbitol </v>
       </c>
       <c r="B8" s="1">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve">Sorbitol </v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B10" s="1">
-        <v>321</v>
-      </c>
-      <c r="C10" s="1">
-        <v>NaN</v>
+        <v>222</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1752300</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>